--- a/class_schedules_fall_2019/LINGUISTICS (LING).xlsx
+++ b/class_schedules_fall_2019/LINGUISTICS (LING).xlsx
@@ -410,13 +410,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -447,8 +447,11 @@
       <c r="K1" s="1">
         <v>9</v>
       </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -467,23 +470,23 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
       </c>
       <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -502,19 +505,19 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
         <v>12</v>
       </c>
     </row>
